--- a/excels/Form 6 - Evaluasi Akhir.xlsx
+++ b/excels/Form 6 - Evaluasi Akhir.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/ecsms/excels/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFAB374-8DA2-8D47-A4FA-034C28E6A695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -492,10 +498,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,6 +518,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,39 +794,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>37</v>
       </c>
@@ -831,7 +840,7 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -839,7 +848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -847,7 +856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -855,7 +864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -863,7 +872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="54" t="s">
         <v>6</v>
       </c>
@@ -881,7 +890,7 @@
       <c r="I11" s="54"/>
       <c r="J11" s="54"/>
     </row>
-    <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -901,7 +910,7 @@
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
     </row>
-    <row r="13" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -921,7 +930,7 @@
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>10</v>
       </c>
@@ -943,7 +952,7 @@
       </c>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -951,17 +960,17 @@
         <v>12</v>
       </c>
       <c r="C15" s="40"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="52">
         <v>0.2</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -969,17 +978,17 @@
         <v>13</v>
       </c>
       <c r="C16" s="40"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="52">
         <v>0.3</v>
       </c>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -987,17 +996,17 @@
         <v>14</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="52">
         <v>0.35</v>
       </c>
       <c r="G17" s="52"/>
       <c r="H17" s="52"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -1005,17 +1014,17 @@
         <v>15</v>
       </c>
       <c r="C18" s="40"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
       <c r="F18" s="52">
         <v>0.15</v>
       </c>
       <c r="G18" s="52"/>
       <c r="H18" s="52"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>16</v>
       </c>
@@ -1026,10 +1035,13 @@
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
+      <c r="I19" s="53">
+        <f>SUM(I15:I18)</f>
+        <v>0</v>
+      </c>
       <c r="J19" s="41"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -1047,7 +1059,7 @@
       </c>
       <c r="J20" s="45"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1059,7 +1071,7 @@
       <c r="I21" s="46"/>
       <c r="J21" s="47"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>18</v>
       </c>
@@ -1077,7 +1089,7 @@
       </c>
       <c r="J22" s="49"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -1093,7 +1105,7 @@
       </c>
       <c r="J23" s="51"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>19</v>
       </c>
@@ -1109,7 +1121,7 @@
       <c r="I24" s="34"/>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>20</v>
       </c>
@@ -1129,7 +1141,7 @@
       <c r="I25" s="38"/>
       <c r="J25" s="39"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
@@ -1149,7 +1161,7 @@
       <c r="I26" s="38"/>
       <c r="J26" s="39"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>23</v>
       </c>
@@ -1169,7 +1181,7 @@
       <c r="I27" s="38"/>
       <c r="J27" s="39"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
         <v>24</v>
       </c>
@@ -1189,7 +1201,7 @@
       <c r="I28" s="28"/>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1201,7 +1213,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -1269,6 +1281,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">JDHWM6R55FRK-3-1098</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">
+      <Url>http://intra-ecorr.pertamina.com:1043/sites/DIR/_layouts/DocIdRedir.aspx?ID=JDHWM6R55FRK-3-1098</Url>
+      <Description>JDHWM6R55FRK-3-1098</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3398B66F6FF2D41BB4BC1F9AFA58185" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a6c582f2b0bd71f194a9173d25feba3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bbc7d0c2066ec31eb77a1a91b3421a26" ns2:_="">
     <xsd:import namespace="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3"/>
@@ -1413,7 +1437,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1459,7 +1483,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1468,30 +1492,46 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">JDHWM6R55FRK-3-1098</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">
-      <Url>http://intra-ecorr.pertamina.com:1043/sites/DIR/_layouts/DocIdRedir.aspx?ID=JDHWM6R55FRK-3-1098</Url>
-      <Description>JDHWM6R55FRK-3-1098</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51C9F6B4-3161-4CA9-AFBD-5F82185E13D1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B2E6BC-8ECE-4CEE-B2A7-0C2AB748E678}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69225441-566D-40C5-A927-397853997736}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51C9F6B4-3161-4CA9-AFBD-5F82185E13D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350BFC04-F163-4318-B394-B2E204502345}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69225441-566D-40C5-A927-397853997736}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B2E6BC-8ECE-4CEE-B2A7-0C2AB748E678}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350BFC04-F163-4318-B394-B2E204502345}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/excels/Form 6 - Evaluasi Akhir.xlsx
+++ b/excels/Form 6 - Evaluasi Akhir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/ecsms/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFAB374-8DA2-8D47-A4FA-034C28E6A695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C7B7D4-7D7D-5949-8FB5-E4334451C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Nama Perusahaan</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Pengawas (Direksi) Pekerjaan Pertamina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -264,19 +267,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -387,9 +377,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -398,129 +387,183 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,7 +851,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -822,411 +865,501 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="26" t="s">
         <v>38</v>
       </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
         <v>4</v>
       </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="25" t="s">
         <v>5</v>
       </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
         <v>5</v>
       </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
         <v>5</v>
       </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54" t="s">
+      <c r="E11" s="68"/>
+      <c r="F11" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
     </row>
     <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="55">
+      <c r="C12" s="35"/>
+      <c r="D12" s="11">
         <v>0</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="56">
+      <c r="C13" s="35"/>
+      <c r="D13" s="12">
         <v>0</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12">
         <v>-60</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="30" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="31"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="52">
+      <c r="C15" s="35"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15">
         <v>0.2</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="52">
+      <c r="C16" s="35"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15">
         <v>0.3</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="52">
+      <c r="C17" s="35"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15">
         <v>0.35</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="52">
+      <c r="C18" s="35"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15">
         <v>0.15</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="53">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="16">
         <f>SUM(I15:I18)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="41"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="42" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="44" t="s">
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="45"/>
+      <c r="J20" s="42"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="7" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="48">
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="17">
         <v>10</v>
       </c>
-      <c r="J22" s="49"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="7" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="50">
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="19">
         <v>-45</v>
       </c>
-      <c r="J23" s="51"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="37" t="s">
+      <c r="B24" s="59"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="38" t="s">
+      <c r="B25" s="64"/>
+      <c r="C25" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="65"/>
+      <c r="E25" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="39"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="38" t="s">
+      <c r="B26" s="64"/>
+      <c r="C26" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="65"/>
+      <c r="E26" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="66"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="38" t="s">
+      <c r="B27" s="64"/>
+      <c r="C27" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="65"/>
+      <c r="E27" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="66"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28" t="s">
+      <c r="B28" s="44"/>
+      <c r="C28" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="39"/>
+      <c r="E28" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="29"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="16"/>
+      <c r="A29" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="63">
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D11:E11"/>
@@ -1243,37 +1376,6 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="E20:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -1281,18 +1383,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">JDHWM6R55FRK-3-1098</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">
-      <Url>http://intra-ecorr.pertamina.com:1043/sites/DIR/_layouts/DocIdRedir.aspx?ID=JDHWM6R55FRK-3-1098</Url>
-      <Description>JDHWM6R55FRK-3-1098</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3398B66F6FF2D41BB4BC1F9AFA58185" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a6c582f2b0bd71f194a9173d25feba3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bbc7d0c2066ec31eb77a1a91b3421a26" ns2:_="">
     <xsd:import namespace="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3"/>
@@ -1437,7 +1527,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">JDHWM6R55FRK-3-1098</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">
+      <Url>http://intra-ecorr.pertamina.com:1043/sites/DIR/_layouts/DocIdRedir.aspx?ID=JDHWM6R55FRK-3-1098</Url>
+      <Description>JDHWM6R55FRK-3-1098</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1483,26 +1594,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B2E6BC-8ECE-4CEE-B2A7-0C2AB748E678}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51C9F6B4-3161-4CA9-AFBD-5F82185E13D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1520,18 +1612,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B2E6BC-8ECE-4CEE-B2A7-0C2AB748E678}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350BFC04-F163-4318-B394-B2E204502345}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69225441-566D-40C5-A927-397853997736}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350BFC04-F163-4318-B394-B2E204502345}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>